--- a/src/Excel/Suppliers/SP01.xlsx
+++ b/src/Excel/Suppliers/SP01.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DLCH\Fast_Food_Store_Management\src\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32EDF1C-A536-4701-92D4-6B6E8E5D303A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5633CD34-35BC-4095-B165-C49C7B2AD8FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="SP01" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>ProductID</t>
   </si>
@@ -59,16 +53,19 @@
     <t>1/2 con</t>
   </si>
   <si>
-    <t>P06</t>
-  </si>
-  <si>
-    <t>Gà nướng sả ớt</t>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>3.5 oz</t>
+  </si>
+  <si>
+    <t>Hamburger gà sốt BBQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,24 +403,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E103E2E0-D383-480F-8705-4BC237F8BC1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -473,13 +470,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>90000</v>
+        <v>30000</v>
       </c>
     </row>
   </sheetData>
